--- a/output/fit_clients/fit_round_345.xlsx
+++ b/output/fit_clients/fit_round_345.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2498291512.068295</v>
+        <v>2162717602.858066</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08598308304119798</v>
+        <v>0.09267132315035885</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03119594348049858</v>
+        <v>0.03410179093613969</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1249145818.66861</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2625373917.185056</v>
+        <v>1638239256.819378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1674919747005775</v>
+        <v>0.1346054363898661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03045146669274745</v>
+        <v>0.04946619008632067</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1312687095.513591</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3412182645.733361</v>
+        <v>3448876052.696464</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1481097470292811</v>
+        <v>0.1096715722471619</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02302999474043615</v>
+        <v>0.02324109429064291</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>124</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1706091295.411328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2649777467.82932</v>
+        <v>2750610530.122145</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08052109463544421</v>
+        <v>0.09093419555933753</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04833701200332743</v>
+        <v>0.05040194877927599</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1324888826.975197</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2353111591.765298</v>
+        <v>2087210394.998037</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1422851070903513</v>
+        <v>0.1201751702107007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03806463738987022</v>
+        <v>0.04876727327555723</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1176555787.269716</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2485904229.284921</v>
+        <v>2498993677.769393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06684821363572536</v>
+        <v>0.09646296711852699</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03532042632203069</v>
+        <v>0.03465559773377768</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>108</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1242952129.017201</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3372501453.45639</v>
+        <v>3157125307.354707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1337854233871886</v>
+        <v>0.1782796895219586</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02265477368981018</v>
+        <v>0.03259239973931152</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>110</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1686250822.327664</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2135937441.263053</v>
+        <v>1813200882.09271</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1453564213772948</v>
+        <v>0.1778180725292062</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03249849352650519</v>
+        <v>0.02755773881373953</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1067968728.381627</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4693807107.651673</v>
+        <v>3924651205.85434</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2100033551949833</v>
+        <v>0.1693240689721789</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05392507914161856</v>
+        <v>0.03808593147506263</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>145</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2346903629.471304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3272230921.826649</v>
+        <v>4052923947.97188</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1836932687398182</v>
+        <v>0.144312852222098</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03567708572269242</v>
+        <v>0.03134162667849928</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>142</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1636115422.851604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3248708083.946582</v>
+        <v>2747392856.725158</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1311994127773705</v>
+        <v>0.1663066698017877</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04227679222969612</v>
+        <v>0.04148128059717843</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>118</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1624354082.785265</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5026963605.426217</v>
+        <v>3490437956.303095</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09849030578622109</v>
+        <v>0.09033111077140926</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03038446055133249</v>
+        <v>0.02658527722402812</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>116</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2513481805.491557</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3655578220.510511</v>
+        <v>3731974068.42048</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1318768757998746</v>
+        <v>0.1267708960097872</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03819105736858489</v>
+        <v>0.03740460989661392</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1827789097.228559</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1593633772.640265</v>
+        <v>1571624942.166499</v>
       </c>
       <c r="F15" t="n">
-        <v>0.100238597951623</v>
+        <v>0.1092314679416004</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0399110606844876</v>
+        <v>0.03969006956732032</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>796816993.0643363</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2677409242.251851</v>
+        <v>2840688522.089774</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09187539804398319</v>
+        <v>0.08131255284245506</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04656802033247462</v>
+        <v>0.04660535456462794</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>68</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1338704636.11321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4814689447.296508</v>
+        <v>4280331126.080296</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1078132193916208</v>
+        <v>0.1260452430878719</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03887640831247378</v>
+        <v>0.04660409958793688</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>101</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2407344717.941804</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2562716853.661849</v>
+        <v>3173380600.565502</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1192909728789699</v>
+        <v>0.1506059395135805</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03063759902012285</v>
+        <v>0.02832231438484606</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>113</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1281358488.737347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1042721791.313665</v>
+        <v>936725925.8495727</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1633192648011023</v>
+        <v>0.1645930666001515</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02154997105386362</v>
+        <v>0.02360476574805753</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>521360935.2923482</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2533124082.965621</v>
+        <v>2354141122.128594</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1109159674872327</v>
+        <v>0.1117014102034897</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03012400500630314</v>
+        <v>0.02653962952135782</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1266562011.034363</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2083646213.602725</v>
+        <v>2226742738.073925</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07061875803083592</v>
+        <v>0.07194369542413752</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03687019788913793</v>
+        <v>0.03946585173462131</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1041823134.736462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3309075214.347167</v>
+        <v>2509026785.154731</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1240291214952974</v>
+        <v>0.1079876524515561</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03850730118175358</v>
+        <v>0.03729655089648397</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>95</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1654537650.207164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>951426306.2832614</v>
+        <v>1286445537.000369</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1229207380833491</v>
+        <v>0.1806502189378513</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03806147219162188</v>
+        <v>0.04029317450878882</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>475713231.5360425</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2505134418.187095</v>
+        <v>4097086371.837705</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09179155913900013</v>
+        <v>0.09685579161425913</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03324703219960137</v>
+        <v>0.02265186522191787</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>100</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1252567277.605131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1325728544.564927</v>
+        <v>1213307671.042646</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08885744939713897</v>
+        <v>0.1051051926441402</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02210444404578927</v>
+        <v>0.03063484894745351</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>662864261.3251765</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>927328295.5043336</v>
+        <v>1380116769.680794</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09963962142360495</v>
+        <v>0.0884908186152807</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02941422947973952</v>
+        <v>0.0285337920662149</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>463664102.0638385</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3432191982.924035</v>
+        <v>3696229438.077497</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1561591855018937</v>
+        <v>0.09971628802430657</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01948073629477557</v>
+        <v>0.01769549870981278</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1716096029.851561</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2564512162.641975</v>
+        <v>3351669771.21361</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1357800664452517</v>
+        <v>0.1292646816184843</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03765024432478307</v>
+        <v>0.03230724209654496</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1282256054.740523</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5205051347.55183</v>
+        <v>4189534411.292947</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09959034613539737</v>
+        <v>0.1484088373312377</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03443117403808671</v>
+        <v>0.04247956841481416</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>152</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2602525607.11743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2046798390.556458</v>
+        <v>2128269722.866199</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1342733811549983</v>
+        <v>0.08771015636815217</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03629036711921466</v>
+        <v>0.03397822102728823</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1023399238.049547</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1021115622.15289</v>
+        <v>1282441467.787031</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1040537283940915</v>
+        <v>0.07458417867052421</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04767821846977571</v>
+        <v>0.04276116038477405</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>510557804.6609277</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1148151300.140727</v>
+        <v>1866909182.403025</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1009828273999767</v>
+        <v>0.09854989839202993</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02535397988998288</v>
+        <v>0.03733279697029245</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>574075645.5342985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2935874379.769071</v>
+        <v>2967593856.050999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1279340461812456</v>
+        <v>0.1578339478183874</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04883850257991582</v>
+        <v>0.04233887789359785</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>104</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1467937190.972661</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1061985202.20066</v>
+        <v>1338168657.757625</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09664987531483439</v>
+        <v>0.0884601549031232</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02660934343960445</v>
+        <v>0.02268488717933427</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>530992628.7643796</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>872714657.5293577</v>
+        <v>1167169578.94403</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08636561279519032</v>
+        <v>0.1043972280829143</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03220713212212499</v>
+        <v>0.03211114372222994</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>436357375.2494426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2147174981.433926</v>
+        <v>3172819477.184373</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1450782742188797</v>
+        <v>0.1772502936253856</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01870346927393475</v>
+        <v>0.01824888416182175</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1073587540.971241</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2151581119.486213</v>
+        <v>2630553336.684869</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08220694710931314</v>
+        <v>0.1076303307483796</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03685768685070803</v>
+        <v>0.04248696501734223</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1075790607.890833</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2202967152.103165</v>
+        <v>1670482482.266931</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09533164162034168</v>
+        <v>0.08734305236895741</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02837308332038242</v>
+        <v>0.03798186061467959</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1101483526.015954</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1596863471.189962</v>
+        <v>1741082931.857223</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1499983113729289</v>
+        <v>0.1806148099038231</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02749791528574406</v>
+        <v>0.03050163632758669</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>798431791.3412044</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1128924372.073416</v>
+        <v>1231487263.156129</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1514492905526885</v>
+        <v>0.1598449150784599</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05544179322714499</v>
+        <v>0.0372954601969463</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>564462245.1359261</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2444843020.787915</v>
+        <v>2653681445.834043</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1602458976686199</v>
+        <v>0.1238845844697783</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03039714451661646</v>
+        <v>0.02963330889088188</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1222421541.044755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3588963597.268991</v>
+        <v>4076717460.706265</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1231259197061518</v>
+        <v>0.09240415572841536</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02883334977293122</v>
+        <v>0.03670946162146293</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1794481799.647101</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2060558739.865078</v>
+        <v>2624610865.159656</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1910426830567186</v>
+        <v>0.1565530978037781</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02544507125000674</v>
+        <v>0.01750542884427851</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>124</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1030279462.79205</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1548437443.747984</v>
+        <v>2131149305.529062</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06889394339191766</v>
+        <v>0.07803935781634828</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02514401690863474</v>
+        <v>0.0357136980111616</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>774218738.1244118</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2218527253.790239</v>
+        <v>1675169680.983222</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1329627289218733</v>
+        <v>0.1694521859802686</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03603783875943919</v>
+        <v>0.04157514778297802</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1109263639.781762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4986445079.761167</v>
+        <v>5560960982.898558</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1300991320712127</v>
+        <v>0.1346135385267248</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03699605623780085</v>
+        <v>0.05775932634703389</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>123</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2493222565.910006</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4804948249.77434</v>
+        <v>4659737390.894647</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2031556993763622</v>
+        <v>0.1298668465348749</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04589983867514695</v>
+        <v>0.05546012457531218</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>92</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2402474169.678941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3565860858.333973</v>
+        <v>3102828849.000617</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08611739231496829</v>
+        <v>0.07439796498072332</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03197622793274561</v>
+        <v>0.03856290990185984</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1782930488.756458</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1668772337.047799</v>
+        <v>1810911932.119401</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1644947781595239</v>
+        <v>0.1513832371124409</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03176454031171774</v>
+        <v>0.03147822145290096</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>834386174.3287828</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2831339887.10754</v>
+        <v>4095552109.0372</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1647855051150402</v>
+        <v>0.1159090009445123</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03529433010451562</v>
+        <v>0.03964850175487031</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>119</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1415670015.378948</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1136776465.912617</v>
+        <v>1041021380.968594</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1621475153989523</v>
+        <v>0.1940716920625553</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0430346434800055</v>
+        <v>0.05347210422518939</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>568388294.7622718</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3548517590.929738</v>
+        <v>4960758243.521951</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08839193625087544</v>
+        <v>0.08704567314980559</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06042529109027363</v>
+        <v>0.04548631533257685</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>142</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1774258878.52296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3680772415.376643</v>
+        <v>3550344477.786835</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1958347464226133</v>
+        <v>0.1639830293538524</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03281742429017496</v>
+        <v>0.03264486392756343</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>99</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1840386193.155975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3557751096.316626</v>
+        <v>3236435443.032809</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1222908328640223</v>
+        <v>0.1661496677932905</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04346247741561847</v>
+        <v>0.04367373674056668</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>113</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1778875577.509087</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3928704710.553792</v>
+        <v>4102173103.382131</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2124301689336149</v>
+        <v>0.1611168838555491</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02305714970113051</v>
+        <v>0.02697819836207311</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1964352327.072026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1532187516.86706</v>
+        <v>1602713941.189011</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1107430184866595</v>
+        <v>0.1059088524015442</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04041709608595594</v>
+        <v>0.05035423576085917</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>766093795.9011875</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3714089290.812069</v>
+        <v>4475484252.808297</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1635502863689286</v>
+        <v>0.1305271790740537</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02230371175427272</v>
+        <v>0.02067449304987148</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>111</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1857044709.775847</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1355990947.657917</v>
+        <v>1879688644.162729</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1272116905193249</v>
+        <v>0.1322012835526625</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02794543830254581</v>
+        <v>0.03917335402503652</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>677995518.1049936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4087183888.764417</v>
+        <v>4888634956.649839</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07895415270727886</v>
+        <v>0.1088566366486159</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03401334131274996</v>
+        <v>0.03486515895017326</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2043591916.143097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2560303094.615085</v>
+        <v>3041231750.689254</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1680293246064938</v>
+        <v>0.1783338553108805</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02592220922886293</v>
+        <v>0.03207499503519327</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1280151571.543689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3004553056.024266</v>
+        <v>2353680591.506972</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1529748292724473</v>
+        <v>0.1449013167225093</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02332095395418975</v>
+        <v>0.03079751007410478</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>119</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1502276508.057079</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1538343622.658911</v>
+        <v>1757422048.978509</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1849729824058022</v>
+        <v>0.1885654202412388</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03835534079117043</v>
+        <v>0.04796993511800387</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>769171800.1179264</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4939551082.078365</v>
+        <v>5232250733.284258</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1028472603108015</v>
+        <v>0.09699505679624683</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03341573976454652</v>
+        <v>0.04021372300503025</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2469775561.508764</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4948407104.491473</v>
+        <v>4107203709.863423</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1505378998266275</v>
+        <v>0.1836583428235525</v>
       </c>
       <c r="G64" t="n">
-        <v>0.034651574447668</v>
+        <v>0.03008070966208437</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>107</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2474203654.824497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4010933261.594298</v>
+        <v>3807974662.911362</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1601634890855001</v>
+        <v>0.1744673848658905</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02248992298405797</v>
+        <v>0.02531098492794948</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>124</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2005466648.740696</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3542024073.877496</v>
+        <v>5560172232.026475</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1168941298251863</v>
+        <v>0.1565796634795128</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03449950436594477</v>
+        <v>0.05030347185077699</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>102</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1771011985.97611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3400250578.008582</v>
+        <v>2138441585.627364</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1018454019321735</v>
+        <v>0.08350733023614253</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05023047495482242</v>
+        <v>0.04209199684031526</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>111</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1700125273.39189</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5513566789.330147</v>
+        <v>5590843919.15173</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1202870462492283</v>
+        <v>0.148992220626346</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04511140049122127</v>
+        <v>0.0466766347846231</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2756783482.178766</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1688642094.094857</v>
+        <v>1513081841.919966</v>
       </c>
       <c r="F69" t="n">
-        <v>0.133476176943018</v>
+        <v>0.1246341802726268</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05337712242477335</v>
+        <v>0.04777052725274824</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>844321011.731873</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3199759764.942506</v>
+        <v>2809895811.633332</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07268485589626485</v>
+        <v>0.07860317770010523</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03487079162163943</v>
+        <v>0.0458692403296956</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>98</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1599879872.429697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3647384037.102558</v>
+        <v>5353200915.219007</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1781833843806842</v>
+        <v>0.1139153287774647</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03150712066744039</v>
+        <v>0.02688983797670197</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>125</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1823692023.321752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1593065213.569818</v>
+        <v>1528413780.966249</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06672663070297091</v>
+        <v>0.1054084453615402</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04848682229505152</v>
+        <v>0.04123661827970835</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>796532618.7845017</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3167756244.059881</v>
+        <v>3091160382.384381</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07914671136130934</v>
+        <v>0.1124021068870077</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04814288590134062</v>
+        <v>0.04393720597340003</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>132</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1583878102.639419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3587958292.720231</v>
+        <v>3160783412.873069</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1400466707923474</v>
+        <v>0.1686821426797654</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03286204367751164</v>
+        <v>0.0228626873040708</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>117</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1793979160.933142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1560456313.874967</v>
+        <v>1686853403.344022</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1481361414670043</v>
+        <v>0.1596214524238431</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02417712236908351</v>
+        <v>0.02468337673846054</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>780228162.3062036</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5363344239.13761</v>
+        <v>4819962713.042618</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1187570186144487</v>
+        <v>0.1228318295699299</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02744544197477348</v>
+        <v>0.02918099052249467</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2681672161.47503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2242226144.666393</v>
+        <v>1447437710.540962</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1705065102775614</v>
+        <v>0.1401566892256571</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02181697052602509</v>
+        <v>0.03069265961656413</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1121113169.668185</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4475636527.658745</v>
+        <v>4158285792.459344</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1099652261980062</v>
+        <v>0.1211129370374684</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04542182396911484</v>
+        <v>0.04500177715813881</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>120</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2237818195.509022</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1655683467.46932</v>
+        <v>1258052626.987391</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1775659296778718</v>
+        <v>0.1096501552520622</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0328227587220843</v>
+        <v>0.02907609322517571</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>827841795.2019774</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5448536266.102624</v>
+        <v>3699227632.89062</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07114401733535311</v>
+        <v>0.08606064527845983</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02588079131883093</v>
+        <v>0.03056292945544357</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2724268204.587128</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3842764319.260799</v>
+        <v>3640797647.114402</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1072037089047755</v>
+        <v>0.1185245204681235</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03179310816090072</v>
+        <v>0.02780239749157884</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1921382116.993085</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5694667329.463386</v>
+        <v>3521041161.091316</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1971349897690064</v>
+        <v>0.2129996155493132</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02015143942392903</v>
+        <v>0.026866292651106</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>121</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2847333609.936735</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1683699015.938298</v>
+        <v>1762693482.055208</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1032708513659483</v>
+        <v>0.15210208472505</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03698226440478448</v>
+        <v>0.04024513784609203</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>841849453.9229532</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2223452297.058352</v>
+        <v>1797151079.479146</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08394663872250378</v>
+        <v>0.07393116888719475</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04819931299569425</v>
+        <v>0.04427865007786347</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1111726120.826768</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3564102129.917373</v>
+        <v>2280513072.588359</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1828409962903973</v>
+        <v>0.1549381835978357</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04380170729472829</v>
+        <v>0.05402714975074428</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>129</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1782051187.378484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2227681698.869783</v>
+        <v>2014554410.886793</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1124181564223641</v>
+        <v>0.1477191945266655</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01986849264277957</v>
+        <v>0.02421696181633764</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1113840908.71496</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1090895919.478723</v>
+        <v>1065584482.245448</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1461429744381267</v>
+        <v>0.1429034216180292</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02889504697146255</v>
+        <v>0.0355906447646812</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>545447987.366362</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3162091762.473833</v>
+        <v>3310066712.757714</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1708710613680255</v>
+        <v>0.1705995704818238</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03665391574631775</v>
+        <v>0.02986934471623356</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>136</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1581045927.711925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2484063366.887338</v>
+        <v>2579357281.849866</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1249569347787932</v>
+        <v>0.1045226809697144</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0281994138459151</v>
+        <v>0.03615732033111927</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>118</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1242031759.369404</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1953671514.508412</v>
+        <v>1580533402.273059</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09664744305009922</v>
+        <v>0.1351755177130529</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04441349970975637</v>
+        <v>0.05063464015383755</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>976835819.000024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1897135539.635928</v>
+        <v>1481316812.234991</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1334268609835831</v>
+        <v>0.1761691628283174</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05685777060388337</v>
+        <v>0.05207924793547519</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>948567755.7967701</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2053137879.952348</v>
+        <v>2824548175.861691</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1090559401702909</v>
+        <v>0.09046643336335294</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04091924703179242</v>
+        <v>0.03837794187093396</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>93</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1026568890.167571</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4275661600.431212</v>
+        <v>4719149654.371374</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09766387185062865</v>
+        <v>0.1422236414422608</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04306619262321678</v>
+        <v>0.03537014777608754</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2137830783.03072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1660506750.639279</v>
+        <v>1687995932.502892</v>
       </c>
       <c r="F94" t="n">
-        <v>0.15449294301071</v>
+        <v>0.125988553311284</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03942521854793601</v>
+        <v>0.02739506480002027</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>830253329.5459852</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3143416322.443548</v>
+        <v>2530626271.200483</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08446710675041308</v>
+        <v>0.1357390640072087</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05203644308029166</v>
+        <v>0.05073579645489967</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1571708150.513092</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1957154528.034409</v>
+        <v>1906220543.015617</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09649011087122125</v>
+        <v>0.1213716606647212</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04411795172280346</v>
+        <v>0.03887027599172709</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>978577255.5908359</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4619214052.757607</v>
+        <v>5047355205.259588</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1213276241600128</v>
+        <v>0.1446140652351242</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02794055316236867</v>
+        <v>0.02902429510911547</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>111</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2309607132.572971</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2997929438.87492</v>
+        <v>3515280420.09196</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1078056929211584</v>
+        <v>0.107137913195237</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02449171409802415</v>
+        <v>0.03066110197511402</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>91</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1498964703.991534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2696959760.20423</v>
+        <v>2091631924.391061</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1437938481439716</v>
+        <v>0.1150538397976487</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02506863185599532</v>
+        <v>0.03371154747491964</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>108</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1348479844.112154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3247297309.333942</v>
+        <v>3546296939.172062</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1274862488679427</v>
+        <v>0.1541821865245067</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02568137462301286</v>
+        <v>0.02490596943314879</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1623648665.256764</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3273606965.072653</v>
+        <v>2401555704.834981</v>
       </c>
       <c r="F101" t="n">
-        <v>0.194094852823527</v>
+        <v>0.1605488801727493</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04182434624693747</v>
+        <v>0.05092152640409708</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>139</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1636803607.801923</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_345.xlsx
+++ b/output/fit_clients/fit_round_345.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2162717602.858066</v>
+        <v>1648864120.392093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09267132315035885</v>
+        <v>0.08869767605485078</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03410179093613969</v>
+        <v>0.04550844262988037</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1638239256.819378</v>
+        <v>2406374685.287508</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1346054363898661</v>
+        <v>0.1527470832326802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04946619008632067</v>
+        <v>0.03995036986134493</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3448876052.696464</v>
+        <v>4143188914.682864</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1096715722471619</v>
+        <v>0.1007427364671276</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02324109429064291</v>
+        <v>0.02903669879026616</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2750610530.122145</v>
+        <v>4111335022.63056</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09093419555933753</v>
+        <v>0.08142823243870102</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05040194877927599</v>
+        <v>0.03871067677082438</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2087210394.998037</v>
+        <v>2679136364.535171</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1201751702107007</v>
+        <v>0.1129548924353753</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04876727327555723</v>
+        <v>0.05418034943243729</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2498993677.769393</v>
+        <v>2089670242.654389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09646296711852699</v>
+        <v>0.06218533680865991</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03465559773377768</v>
+        <v>0.04716500459919355</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3157125307.354707</v>
+        <v>3318058166.913835</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1782796895219586</v>
+        <v>0.1426235006434031</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03259239973931152</v>
+        <v>0.02888336980663925</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1813200882.09271</v>
+        <v>1716611008.923004</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1778180725292062</v>
+        <v>0.1477822334610391</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02755773881373953</v>
+        <v>0.02578778612583223</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3924651205.85434</v>
+        <v>4438174675.106524</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1693240689721789</v>
+        <v>0.1968567817212275</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03808593147506263</v>
+        <v>0.0397741133327963</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4052923947.97188</v>
+        <v>2857513170.513122</v>
       </c>
       <c r="F11" t="n">
-        <v>0.144312852222098</v>
+        <v>0.1486068786557406</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03134162667849928</v>
+        <v>0.04128656361992829</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2747392856.725158</v>
+        <v>2142407308.181123</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1663066698017877</v>
+        <v>0.1232223997993702</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04148128059717843</v>
+        <v>0.03733206973589463</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3490437956.303095</v>
+        <v>4574940082.862473</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09033111077140926</v>
+        <v>0.07303611868320357</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02658527722402812</v>
+        <v>0.02416465463094677</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3731974068.42048</v>
+        <v>3364884855.789695</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1267708960097872</v>
+        <v>0.1182354885375031</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03740460989661392</v>
+        <v>0.02975712607957795</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1571624942.166499</v>
+        <v>1157004064.240022</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1092314679416004</v>
+        <v>0.08307528614600222</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03969006956732032</v>
+        <v>0.03982686037353434</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2840688522.089774</v>
+        <v>2605240590.058086</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08131255284245506</v>
+        <v>0.07007846141082641</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04660535456462794</v>
+        <v>0.04852914017804164</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4280331126.080296</v>
+        <v>4035110116.788111</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1260452430878719</v>
+        <v>0.1211255276922104</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04660409958793688</v>
+        <v>0.03617827916944498</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3173380600.565502</v>
+        <v>3237439954.991552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1506059395135805</v>
+        <v>0.1188607728426183</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02832231438484606</v>
+        <v>0.02573861267984806</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>936725925.8495727</v>
+        <v>1154836222.671301</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1645930666001515</v>
+        <v>0.1476997606503415</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02360476574805753</v>
+        <v>0.02697355597250947</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2354141122.128594</v>
+        <v>1860327592.01359</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1117014102034897</v>
+        <v>0.1536870856011892</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02653962952135782</v>
+        <v>0.02134314727181436</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2226742738.073925</v>
+        <v>1864721951.502964</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07194369542413752</v>
+        <v>0.07020577818586481</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03946585173462131</v>
+        <v>0.03351396617321563</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2509026785.154731</v>
+        <v>2805778460.611913</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1079876524515561</v>
+        <v>0.140590699746241</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03729655089648397</v>
+        <v>0.05580907803264675</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1286445537.000369</v>
+        <v>1111568541.327698</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1806502189378513</v>
+        <v>0.1742091894820905</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04029317450878882</v>
+        <v>0.03607465111937418</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4097086371.837705</v>
+        <v>3525016707.22391</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09685579161425913</v>
+        <v>0.1293994979890787</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02265186522191787</v>
+        <v>0.0257388752350451</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1213307671.042646</v>
+        <v>1098876384.816737</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1051051926441402</v>
+        <v>0.1022406085348977</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03063484894745351</v>
+        <v>0.02221190530573666</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1380116769.680794</v>
+        <v>1292320321.406822</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0884908186152807</v>
+        <v>0.1172991123615399</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0285337920662149</v>
+        <v>0.03876695505044069</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3696229438.077497</v>
+        <v>3667354554.689094</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09971628802430657</v>
+        <v>0.09851351981169479</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01769549870981278</v>
+        <v>0.02075195829851075</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3351669771.21361</v>
+        <v>2804164181.807229</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1292646816184843</v>
+        <v>0.09435700603961913</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03230724209654496</v>
+        <v>0.04459956671764107</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4189534411.292947</v>
+        <v>4696798137.036226</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1484088373312377</v>
+        <v>0.1067150704504329</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04247956841481416</v>
+        <v>0.04342970243975308</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2128269722.866199</v>
+        <v>2045751092.386977</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08771015636815217</v>
+        <v>0.1353130841076282</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03397822102728823</v>
+        <v>0.02503119891193988</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1282441467.787031</v>
+        <v>1032744230.644436</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07458417867052421</v>
+        <v>0.08233914368977464</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04276116038477405</v>
+        <v>0.03868889539113539</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1866909182.403025</v>
+        <v>1572521406.39977</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09854989839202993</v>
+        <v>0.09830476318681647</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03733279697029245</v>
+        <v>0.03284729587051755</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2967593856.050999</v>
+        <v>2481913341.476572</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1578339478183874</v>
+        <v>0.1995699206956534</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04233887789359785</v>
+        <v>0.03931693962559604</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1338168657.757625</v>
+        <v>1081458106.555045</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0884601549031232</v>
+        <v>0.121774270466221</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02268488717933427</v>
+        <v>0.02467633435948877</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1167169578.94403</v>
+        <v>1219853309.714359</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1043972280829143</v>
+        <v>0.1024395051349393</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03211114372222994</v>
+        <v>0.03961413070150805</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3172819477.184373</v>
+        <v>2844462823.861259</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1772502936253856</v>
+        <v>0.1793185999881249</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01824888416182175</v>
+        <v>0.0276388178178474</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2630553336.684869</v>
+        <v>2464090077.637759</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1076303307483796</v>
+        <v>0.08101236692144063</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04248696501734223</v>
+        <v>0.03912392549256909</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1670482482.266931</v>
+        <v>1665355287.2043</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08734305236895741</v>
+        <v>0.1089786662171666</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03798186061467959</v>
+        <v>0.02889858879490036</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1741082931.857223</v>
+        <v>1902319302.734216</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1806148099038231</v>
+        <v>0.1228425004307319</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03050163632758669</v>
+        <v>0.02374265901050114</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1231487263.156129</v>
+        <v>1120565734.577882</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1598449150784599</v>
+        <v>0.1116966436709723</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0372954601969463</v>
+        <v>0.05515721805332405</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2653681445.834043</v>
+        <v>2503683585.584225</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1238845844697783</v>
+        <v>0.1108212238017348</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02963330889088188</v>
+        <v>0.0316628001309724</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4076717460.706265</v>
+        <v>3196254631.359871</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09240415572841536</v>
+        <v>0.1172233796792258</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03670946162146293</v>
+        <v>0.04124324202874396</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2624610865.159656</v>
+        <v>2016502787.173281</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1565530978037781</v>
+        <v>0.1583559204943742</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01750542884427851</v>
+        <v>0.0235403100904366</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2131149305.529062</v>
+        <v>2049852701.913266</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07803935781634828</v>
+        <v>0.09295665429726779</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0357136980111616</v>
+        <v>0.03085309669723225</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1675169680.983222</v>
+        <v>1727155206.952346</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1694521859802686</v>
+        <v>0.1454104668129502</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04157514778297802</v>
+        <v>0.04843079607278299</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5560960982.898558</v>
+        <v>5055191072.251939</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1346135385267248</v>
+        <v>0.161656263631927</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05775932634703389</v>
+        <v>0.05403303557617816</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4659737390.894647</v>
+        <v>3900048032.294765</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1298668465348749</v>
+        <v>0.1478836634495965</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05546012457531218</v>
+        <v>0.03752562643447119</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3102828849.000617</v>
+        <v>3926197414.965513</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07439796498072332</v>
+        <v>0.1094998108000615</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03856290990185984</v>
+        <v>0.02612951065721237</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1810911932.119401</v>
+        <v>1837711360.516216</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1513832371124409</v>
+        <v>0.1752953316824513</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03147822145290096</v>
+        <v>0.04169719891674609</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4095552109.0372</v>
+        <v>3955574247.140201</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1159090009445123</v>
+        <v>0.1752558142530515</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03964850175487031</v>
+        <v>0.03798535999870039</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1041021380.968594</v>
+        <v>1447352673.878439</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1940716920625553</v>
+        <v>0.1525222386111937</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05347210422518939</v>
+        <v>0.03973018209405729</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4960758243.521951</v>
+        <v>4052793769.737469</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08704567314980559</v>
+        <v>0.1049913910531621</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04548631533257685</v>
+        <v>0.037881473967073</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3550344477.786835</v>
+        <v>3666641737.233872</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1639830293538524</v>
+        <v>0.1838247762302555</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03264486392756343</v>
+        <v>0.03058197612100784</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3236435443.032809</v>
+        <v>4939461231.542373</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1661496677932905</v>
+        <v>0.1642996389955468</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04367373674056668</v>
+        <v>0.05114211323411209</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4102173103.382131</v>
+        <v>3584169370.643429</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1611168838555491</v>
+        <v>0.2245139937633437</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02697819836207311</v>
+        <v>0.02640965733986248</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1602713941.189011</v>
+        <v>1258327087.68973</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1059088524015442</v>
+        <v>0.145173163780439</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05035423576085917</v>
+        <v>0.0458544981605516</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4475484252.808297</v>
+        <v>3513198752.389992</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1305271790740537</v>
+        <v>0.1238658356552594</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02067449304987148</v>
+        <v>0.02118597874331421</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1879688644.162729</v>
+        <v>1725281378.894037</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1322012835526625</v>
+        <v>0.1971771163338558</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03917335402503652</v>
+        <v>0.03242921612534537</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4888634956.649839</v>
+        <v>4574812418.954292</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1088566366486159</v>
+        <v>0.1111673530870888</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03486515895017326</v>
+        <v>0.03185620853060212</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3041231750.689254</v>
+        <v>3684246822.268494</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1783338553108805</v>
+        <v>0.1901706293504024</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03207499503519327</v>
+        <v>0.02465334410511228</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2353680591.506972</v>
+        <v>3274300514.491403</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1449013167225093</v>
+        <v>0.1386444122904883</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03079751007410478</v>
+        <v>0.02531906615288631</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1757422048.978509</v>
+        <v>1342131871.049464</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1885654202412388</v>
+        <v>0.1683686503661889</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04796993511800387</v>
+        <v>0.04672933248008871</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5232250733.284258</v>
+        <v>3623457964.92564</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09699505679624683</v>
+        <v>0.09823739844788094</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04021372300503025</v>
+        <v>0.03743457364485141</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4107203709.863423</v>
+        <v>4082520381.111602</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1836583428235525</v>
+        <v>0.1627864731768207</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03008070966208437</v>
+        <v>0.03543284512617554</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3807974662.911362</v>
+        <v>4064878397.617022</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1744673848658905</v>
+        <v>0.1423132239259699</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02531098492794948</v>
+        <v>0.02773786905181467</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5560172232.026475</v>
+        <v>3455724666.27892</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1565796634795128</v>
+        <v>0.1350575929174835</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05030347185077699</v>
+        <v>0.03706122096245403</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2138441585.627364</v>
+        <v>2899962856.423461</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08350733023614253</v>
+        <v>0.07714944227770039</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04209199684031526</v>
+        <v>0.04074284984873611</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5590843919.15173</v>
+        <v>3920700758.083375</v>
       </c>
       <c r="F68" t="n">
-        <v>0.148992220626346</v>
+        <v>0.1378574816510405</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0466766347846231</v>
+        <v>0.03287098633609691</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1513081841.919966</v>
+        <v>2464853601.983592</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1246341802726268</v>
+        <v>0.1321356929558117</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04777052725274824</v>
+        <v>0.03954794379760991</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2809895811.633332</v>
+        <v>3444305510.630323</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07860317770010523</v>
+        <v>0.08743370770796598</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0458692403296956</v>
+        <v>0.03825598067120425</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5353200915.219007</v>
+        <v>4158294579.91787</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1139153287774647</v>
+        <v>0.1308658596073559</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02688983797670197</v>
+        <v>0.02850405952093747</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1528413780.966249</v>
+        <v>2272374088.52984</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1054084453615402</v>
+        <v>0.1018136353476023</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04123661827970835</v>
+        <v>0.04795577485134443</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3091160382.384381</v>
+        <v>3204303676.548127</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1124021068870077</v>
+        <v>0.1097330238123582</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04393720597340003</v>
+        <v>0.05070525897094374</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3160783412.873069</v>
+        <v>3173666033.87475</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1686821426797654</v>
+        <v>0.1386983599206408</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0228626873040708</v>
+        <v>0.02746698535182779</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1686853403.344022</v>
+        <v>1758073266.666069</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1596214524238431</v>
+        <v>0.1445775520939238</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02468337673846054</v>
+        <v>0.03424652172648439</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4819962713.042618</v>
+        <v>5047727508.765008</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1228318295699299</v>
+        <v>0.07879520923020145</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02918099052249467</v>
+        <v>0.03406204238031827</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1447437710.540962</v>
+        <v>1882851385.608241</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1401566892256571</v>
+        <v>0.1527267153171466</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03069265961656413</v>
+        <v>0.02185433682119218</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4158285792.459344</v>
+        <v>3734747360.941862</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1211129370374684</v>
+        <v>0.08803675313595979</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04500177715813881</v>
+        <v>0.04881481516125832</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1258052626.987391</v>
+        <v>1638274325.035736</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1096501552520622</v>
+        <v>0.1614051737832129</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02907609322517571</v>
+        <v>0.02638372321004022</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3699227632.89062</v>
+        <v>3504055041.777936</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08606064527845983</v>
+        <v>0.09385464588886686</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03056292945544357</v>
+        <v>0.03050908132220859</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3640797647.114402</v>
+        <v>3217977597.54083</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1185245204681235</v>
+        <v>0.1159521947848842</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02780239749157884</v>
+        <v>0.02052062062060906</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3521041161.091316</v>
+        <v>4798912206.829686</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2129996155493132</v>
+        <v>0.180547295724854</v>
       </c>
       <c r="G82" t="n">
-        <v>0.026866292651106</v>
+        <v>0.02517368726933806</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1762693482.055208</v>
+        <v>2228449847.52797</v>
       </c>
       <c r="F83" t="n">
-        <v>0.15210208472505</v>
+        <v>0.09978924984576253</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04024513784609203</v>
+        <v>0.03748377523238782</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1797151079.479146</v>
+        <v>2031028191.059052</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07393116888719475</v>
+        <v>0.07305840513172655</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04427865007786347</v>
+        <v>0.05096280377095184</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2280513072.588359</v>
+        <v>2847533524.921428</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1549381835978357</v>
+        <v>0.1260945203078202</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05402714975074428</v>
+        <v>0.03542828636980139</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2014554410.886793</v>
+        <v>2643120492.257581</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1477191945266655</v>
+        <v>0.1337452303895946</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02421696181633764</v>
+        <v>0.02002571152094131</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1065584482.245448</v>
+        <v>1464246013.632314</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1429034216180292</v>
+        <v>0.1595832832749911</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0355906447646812</v>
+        <v>0.03107259638827379</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3310066712.757714</v>
+        <v>2612528189.448379</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1705995704818238</v>
+        <v>0.1351229023399479</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02986934471623356</v>
+        <v>0.03369395873633638</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2579357281.849866</v>
+        <v>2344819174.215107</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1045226809697144</v>
+        <v>0.1349677771685606</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03615732033111927</v>
+        <v>0.02688686648557017</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1580533402.273059</v>
+        <v>2111021430.403105</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1351755177130529</v>
+        <v>0.1251271544831631</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05063464015383755</v>
+        <v>0.04430874491322855</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1481316812.234991</v>
+        <v>1462612609.114669</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1761691628283174</v>
+        <v>0.124152547453474</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05207924793547519</v>
+        <v>0.0388390220144163</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2824548175.861691</v>
+        <v>2868844735.772756</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09046643336335294</v>
+        <v>0.0879464498098301</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03837794187093396</v>
+        <v>0.03222531460272609</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4719149654.371374</v>
+        <v>4597172207.507349</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1422236414422608</v>
+        <v>0.09831279181242787</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03537014777608754</v>
+        <v>0.05073114947003419</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1687995932.502892</v>
+        <v>1917649574.394492</v>
       </c>
       <c r="F94" t="n">
-        <v>0.125988553311284</v>
+        <v>0.1680852954307113</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02739506480002027</v>
+        <v>0.03917014666453212</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2530626271.200483</v>
+        <v>2095092088.204346</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1357390640072087</v>
+        <v>0.1123205652854565</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05073579645489967</v>
+        <v>0.03979697633906329</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1906220543.015617</v>
+        <v>2109383831.003545</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1213716606647212</v>
+        <v>0.1382628887597862</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03887027599172709</v>
+        <v>0.04592922480732066</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5047355205.259588</v>
+        <v>4114615552.184812</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1446140652351242</v>
+        <v>0.1202785259924343</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02902429510911547</v>
+        <v>0.01930652076689159</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3515280420.09196</v>
+        <v>2966808468.309795</v>
       </c>
       <c r="F98" t="n">
-        <v>0.107137913195237</v>
+        <v>0.1300595335312272</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03066110197511402</v>
+        <v>0.02803644998397397</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2091631924.391061</v>
+        <v>2534315638.012036</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1150538397976487</v>
+        <v>0.1393698096563803</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03371154747491964</v>
+        <v>0.02265140487680857</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3546296939.172062</v>
+        <v>4772055951.278622</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1541821865245067</v>
+        <v>0.1105703280879548</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02490596943314879</v>
+        <v>0.01901392812454296</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2401555704.834981</v>
+        <v>3445955029.612154</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1605488801727493</v>
+        <v>0.1416300600904471</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05092152640409708</v>
+        <v>0.05856727033510323</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_345.xlsx
+++ b/output/fit_clients/fit_round_345.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1648864120.392093</v>
+        <v>2236885425.386279</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08869767605485078</v>
+        <v>0.0703390851502942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04550844262988037</v>
+        <v>0.03268159878088461</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2406374685.287508</v>
+        <v>2140620806.410995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1527470832326802</v>
+        <v>0.1206781084986049</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03995036986134493</v>
+        <v>0.0381884713216464</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4143188914.682864</v>
+        <v>5146868950.055195</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1007427364671276</v>
+        <v>0.1252462911833768</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02903669879026616</v>
+        <v>0.0230634260676591</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>179</v>
+      </c>
+      <c r="J4" t="n">
+        <v>344</v>
+      </c>
+      <c r="K4" t="n">
+        <v>62.64534574279733</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4111335022.63056</v>
+        <v>3549773866.040713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08142823243870102</v>
+        <v>0.0788837332868968</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03871067677082438</v>
+        <v>0.0384587019127163</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>137</v>
+      </c>
+      <c r="J5" t="n">
+        <v>344</v>
+      </c>
+      <c r="K5" t="n">
+        <v>48.78620669137371</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2679136364.535171</v>
+        <v>2835700783.317287</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1129548924353753</v>
+        <v>0.1041388221450207</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05418034943243729</v>
+        <v>0.05484285274114083</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2089670242.654389</v>
+        <v>2579451378.453083</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06218533680865991</v>
+        <v>0.06953765366306057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04716500459919355</v>
+        <v>0.03682473488526957</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3318058166.913835</v>
+        <v>3487480670.487761</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1426235006434031</v>
+        <v>0.1990354333992156</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02888336980663925</v>
+        <v>0.03181250795576362</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>90</v>
+      </c>
+      <c r="J8" t="n">
+        <v>343</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1716611008.923004</v>
+        <v>2195677748.278248</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1477822334610391</v>
+        <v>0.1638605449982118</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02578778612583223</v>
+        <v>0.03432795622007229</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4438174675.106524</v>
+        <v>4374728172.696276</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1968567817212275</v>
+        <v>0.2007199729695223</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0397741133327963</v>
+        <v>0.03303113013397658</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>293</v>
+      </c>
+      <c r="J10" t="n">
+        <v>344</v>
+      </c>
+      <c r="K10" t="n">
+        <v>57.7530820378812</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2857513170.513122</v>
+        <v>2663400843.934926</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1486068786557406</v>
+        <v>0.167599080833394</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04128656361992829</v>
+        <v>0.04920033112483008</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>141</v>
+      </c>
+      <c r="J11" t="n">
+        <v>343</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2142407308.181123</v>
+        <v>2844197125.180202</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1232223997993702</v>
+        <v>0.1320097683386743</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03733206973589463</v>
+        <v>0.0495548447433266</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4574940082.862473</v>
+        <v>4357638908.18045</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07303611868320357</v>
+        <v>0.0800827893092575</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02416465463094677</v>
+        <v>0.01922898951657711</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>179</v>
+      </c>
+      <c r="J13" t="n">
+        <v>344</v>
+      </c>
+      <c r="K13" t="n">
+        <v>58.82246558479996</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3364884855.789695</v>
+        <v>3752543864.152878</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1182354885375031</v>
+        <v>0.1286578813077606</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02975712607957795</v>
+        <v>0.03999502898753733</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>345</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1157004064.240022</v>
+        <v>1256116678.735757</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08307528614600222</v>
+        <v>0.09718265042351366</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03982686037353434</v>
+        <v>0.03881460382894875</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2605240590.058086</v>
+        <v>2540860081.030303</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07007846141082641</v>
+        <v>0.09455472516385062</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04852914017804164</v>
+        <v>0.04160543921072885</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4035110116.788111</v>
+        <v>4675092095.549064</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1211255276922104</v>
+        <v>0.1207030129914364</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03617827916944498</v>
+        <v>0.04199242497325983</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>163</v>
+      </c>
+      <c r="J17" t="n">
+        <v>344</v>
+      </c>
+      <c r="K17" t="n">
+        <v>65.73625434416769</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3237439954.991552</v>
+        <v>3048771794.317638</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1188607728426183</v>
+        <v>0.1232471202994594</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02573861267984806</v>
+        <v>0.0298646313750577</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1154836222.671301</v>
+        <v>1197427082.346868</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1476997606503415</v>
+        <v>0.1377424038957183</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02697355597250947</v>
+        <v>0.0210260384529527</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1860327592.01359</v>
+        <v>2335325537.984912</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1536870856011892</v>
+        <v>0.1308820005866745</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02134314727181436</v>
+        <v>0.0220907253824253</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1864721951.502964</v>
+        <v>2163163791.100589</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07020577818586481</v>
+        <v>0.08130375959689855</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03351396617321563</v>
+        <v>0.04439046089580305</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2805778460.611913</v>
+        <v>3016617224.722253</v>
       </c>
       <c r="F22" t="n">
-        <v>0.140590699746241</v>
+        <v>0.1102300123083102</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05580907803264675</v>
+        <v>0.05719127087038284</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>338</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1111568541.327698</v>
+        <v>1045540689.456339</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1742091894820905</v>
+        <v>0.1465618167907577</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03607465111937418</v>
+        <v>0.03525412674946618</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3525016707.22391</v>
+        <v>2767445920.562763</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1293994979890787</v>
+        <v>0.09182423261365286</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0257388752350451</v>
+        <v>0.03456880930917688</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>102</v>
+      </c>
+      <c r="J24" t="n">
+        <v>342</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1098876384.816737</v>
+        <v>1010818892.089783</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1022406085348977</v>
+        <v>0.07633981377187687</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02221190530573666</v>
+        <v>0.03013359248965918</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1292320321.406822</v>
+        <v>1445687654.266109</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1172991123615399</v>
+        <v>0.09221516815790144</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03876695505044069</v>
+        <v>0.0336528535489022</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3667354554.689094</v>
+        <v>3691783760.783692</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09851351981169479</v>
+        <v>0.1542835872104188</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02075195829851075</v>
+        <v>0.02515943252998814</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>143</v>
+      </c>
+      <c r="J27" t="n">
+        <v>345</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2804164181.807229</v>
+        <v>3559783863.219435</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09435700603961913</v>
+        <v>0.09301834285121509</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04459956671764107</v>
+        <v>0.03613599740559629</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>77</v>
+      </c>
+      <c r="J28" t="n">
+        <v>345</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4696798137.036226</v>
+        <v>4781378229.387958</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1067150704504329</v>
+        <v>0.09904950376852015</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04342970243975308</v>
+        <v>0.03507289978305079</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>310</v>
+      </c>
+      <c r="J29" t="n">
+        <v>345</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2045751092.386977</v>
+        <v>1779089965.310051</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1353130841076282</v>
+        <v>0.1310800667297258</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02503119891193988</v>
+        <v>0.03527987954763277</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1032744230.644436</v>
+        <v>1298423833.287576</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08233914368977464</v>
+        <v>0.08576493611691019</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03868889539113539</v>
+        <v>0.03866471310755529</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1572521406.39977</v>
+        <v>1338141034.499832</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09830476318681647</v>
+        <v>0.08336318469060648</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03284729587051755</v>
+        <v>0.0380518830096634</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2481913341.476572</v>
+        <v>2848465537.412097</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1995699206956534</v>
+        <v>0.173947482237437</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03931693962559604</v>
+        <v>0.04704663366900145</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1081458106.555045</v>
+        <v>1050605691.508051</v>
       </c>
       <c r="F34" t="n">
-        <v>0.121774270466221</v>
+        <v>0.08106670788084926</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02467633435948877</v>
+        <v>0.01756900302113432</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1219853309.714359</v>
+        <v>1211490671.878232</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1024395051349393</v>
+        <v>0.1029426177779854</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03961413070150805</v>
+        <v>0.0336792204626127</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2844462823.861259</v>
+        <v>2483028292.654446</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1793185999881249</v>
+        <v>0.1445345136058762</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0276388178178474</v>
+        <v>0.02824279006454588</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2464090077.637759</v>
+        <v>2698968796.512244</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08101236692144063</v>
+        <v>0.07512712045403364</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03912392549256909</v>
+        <v>0.04083778492778264</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1665355287.2043</v>
+        <v>1668787287.880962</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1089786662171666</v>
+        <v>0.07570420168408383</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02889858879490036</v>
+        <v>0.03462881538180289</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1902319302.734216</v>
+        <v>1452084705.42286</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1228425004307319</v>
+        <v>0.1715908440656976</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02374265901050114</v>
+        <v>0.02276472321303992</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1120565734.577882</v>
+        <v>1437012103.757235</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1116966436709723</v>
+        <v>0.1341495942339346</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05515721805332405</v>
+        <v>0.04654959823990731</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2503683585.584225</v>
+        <v>2115884058.729131</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1108212238017348</v>
+        <v>0.1529402601123447</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0316628001309724</v>
+        <v>0.03779603433144408</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3196254631.359871</v>
+        <v>2979466478.359482</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1172233796792258</v>
+        <v>0.08316815883868756</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04124324202874396</v>
+        <v>0.04292163487934821</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>150</v>
+      </c>
+      <c r="J42" t="n">
+        <v>343</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2016502787.173281</v>
+        <v>2570198413.288508</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1583559204943742</v>
+        <v>0.1917754470551419</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0235403100904366</v>
+        <v>0.01700707236010056</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2049852701.913266</v>
+        <v>1646068349.79202</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09295665429726779</v>
+        <v>0.07587533977145293</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03085309669723225</v>
+        <v>0.03130837781244161</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1727155206.952346</v>
+        <v>1774976467.076478</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1454104668129502</v>
+        <v>0.1435680462656729</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04843079607278299</v>
+        <v>0.05164636469666756</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5055191072.251939</v>
+        <v>4649980903.021127</v>
       </c>
       <c r="F46" t="n">
-        <v>0.161656263631927</v>
+        <v>0.1415993109334783</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05403303557617816</v>
+        <v>0.05556645369672946</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>207</v>
+      </c>
+      <c r="J46" t="n">
+        <v>345</v>
+      </c>
+      <c r="K46" t="n">
+        <v>67.19003011843655</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3900048032.294765</v>
+        <v>5198034320.16654</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1478836634495965</v>
+        <v>0.1756543037296042</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03752562643447119</v>
+        <v>0.05834086995428956</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>154</v>
+      </c>
+      <c r="J47" t="n">
+        <v>344</v>
+      </c>
+      <c r="K47" t="n">
+        <v>57.44312440878393</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3926197414.965513</v>
+        <v>4490226757.233044</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1094998108000615</v>
+        <v>0.09017688751153438</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02612951065721237</v>
+        <v>0.03453453200821963</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>171</v>
+      </c>
+      <c r="J48" t="n">
+        <v>345</v>
+      </c>
+      <c r="K48" t="n">
+        <v>68.77961847141282</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1837711360.516216</v>
+        <v>1402450214.629274</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1752953316824513</v>
+        <v>0.1680096300263858</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04169719891674609</v>
+        <v>0.04465521335402749</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3955574247.140201</v>
+        <v>3296830611.853549</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1752558142530515</v>
+        <v>0.1589816212078087</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03798535999870039</v>
+        <v>0.03715506945957099</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>114</v>
+      </c>
+      <c r="J50" t="n">
+        <v>344</v>
+      </c>
+      <c r="K50" t="n">
+        <v>37.79864366090185</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1447352673.878439</v>
+        <v>1017474051.676799</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1525222386111937</v>
+        <v>0.1536250718192168</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03973018209405729</v>
+        <v>0.05008191302236883</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4052793769.737469</v>
+        <v>4084409305.727094</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1049913910531621</v>
+        <v>0.1337501083819572</v>
       </c>
       <c r="G52" t="n">
-        <v>0.037881473967073</v>
+        <v>0.05870189838402244</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>206</v>
+      </c>
+      <c r="J52" t="n">
+        <v>345</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3666641737.233872</v>
+        <v>3605245066.112621</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1838247762302555</v>
+        <v>0.1903335661202394</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03058197612100784</v>
+        <v>0.0264624471175816</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>50</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4939461231.542373</v>
+        <v>3104253252.690138</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1642996389955468</v>
+        <v>0.1647474676940506</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05114211323411209</v>
+        <v>0.03700455093097246</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>181</v>
+      </c>
+      <c r="J54" t="n">
+        <v>342</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3584169370.643429</v>
+        <v>4711128638.854889</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2245139937633437</v>
+        <v>0.2151108652105949</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02640965733986248</v>
+        <v>0.03013453350607266</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>165</v>
+      </c>
+      <c r="J55" t="n">
+        <v>345</v>
+      </c>
+      <c r="K55" t="n">
+        <v>67.63481000412861</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1258327087.68973</v>
+        <v>1449054877.360956</v>
       </c>
       <c r="F56" t="n">
-        <v>0.145173163780439</v>
+        <v>0.1508819835643914</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0458544981605516</v>
+        <v>0.04682156830749287</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3513198752.389992</v>
+        <v>3794021975.069789</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1238658356552594</v>
+        <v>0.1350852854974995</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02118597874331421</v>
+        <v>0.01885701328327074</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>141</v>
+      </c>
+      <c r="J57" t="n">
+        <v>345</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1725281378.894037</v>
+        <v>1877826405.256849</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1971771163338558</v>
+        <v>0.1582884689159756</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03242921612534537</v>
+        <v>0.0253824731222219</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4574812418.954292</v>
+        <v>3804540364.137719</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1111673530870888</v>
+        <v>0.1067215562588921</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03185620853060212</v>
+        <v>0.03262853791351871</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>166</v>
+      </c>
+      <c r="J59" t="n">
+        <v>345</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3684246822.268494</v>
+        <v>2384217247.8678</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1901706293504024</v>
+        <v>0.1747435253184776</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02465334410511228</v>
+        <v>0.02852830440270846</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>61</v>
+      </c>
+      <c r="J60" t="n">
+        <v>344</v>
+      </c>
+      <c r="K60" t="n">
+        <v>23.44636317177554</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3274300514.491403</v>
+        <v>2420937513.725791</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1386444122904883</v>
+        <v>0.1149854189777579</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02531906615288631</v>
+        <v>0.02299799353825756</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1342131871.049464</v>
+        <v>2069536719.665582</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1683686503661889</v>
+        <v>0.1606582215453075</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04672933248008871</v>
+        <v>0.03738388457589409</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3623457964.92564</v>
+        <v>5009601424.554745</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09823739844788094</v>
+        <v>0.08212443534143681</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03743457364485141</v>
+        <v>0.04726532063825575</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>169</v>
+      </c>
+      <c r="J63" t="n">
+        <v>345</v>
+      </c>
+      <c r="K63" t="n">
+        <v>66.024954867974</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4082520381.111602</v>
+        <v>3968818707.570544</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1627864731768207</v>
+        <v>0.1738267247620738</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03543284512617554</v>
+        <v>0.03310433109556471</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>171</v>
+      </c>
+      <c r="J64" t="n">
+        <v>344</v>
+      </c>
+      <c r="K64" t="n">
+        <v>48.27794876135795</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4064878397.617022</v>
+        <v>5674079872.116404</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1423132239259699</v>
+        <v>0.1516300763516038</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02773786905181467</v>
+        <v>0.02399163471933666</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>267</v>
+      </c>
+      <c r="J65" t="n">
+        <v>344</v>
+      </c>
+      <c r="K65" t="n">
+        <v>65.85714788662538</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3455724666.27892</v>
+        <v>3779370008.544666</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1350575929174835</v>
+        <v>0.106145398622394</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03706122096245403</v>
+        <v>0.04905219832098445</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>170</v>
+      </c>
+      <c r="J66" t="n">
+        <v>345</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2899962856.423461</v>
+        <v>3273641476.771507</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07714944227770039</v>
+        <v>0.09703983219475494</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04074284984873611</v>
+        <v>0.04157008185194839</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3920700758.083375</v>
+        <v>4392389614.68653</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1378574816510405</v>
+        <v>0.1239871488385783</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03287098633609691</v>
+        <v>0.03166030218714346</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>187</v>
+      </c>
+      <c r="J68" t="n">
+        <v>345</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2464853601.983592</v>
+        <v>1563717403.33678</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1321356929558117</v>
+        <v>0.1691024928116995</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03954794379760991</v>
+        <v>0.05479230842177512</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3444305510.630323</v>
+        <v>2400330708.980454</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08743370770796598</v>
+        <v>0.07415981404699935</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03825598067120425</v>
+        <v>0.04246088254946993</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4158294579.91787</v>
+        <v>5136372770.25977</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1308658596073559</v>
+        <v>0.1155272275717827</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02850405952093747</v>
+        <v>0.02137842503204179</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>253</v>
+      </c>
+      <c r="J71" t="n">
+        <v>344</v>
+      </c>
+      <c r="K71" t="n">
+        <v>64.16196455601781</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2272374088.52984</v>
+        <v>2111660258.719117</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1018136353476023</v>
+        <v>0.1069829059997528</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04795577485134443</v>
+        <v>0.04564134640374182</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3204303676.548127</v>
+        <v>3077013662.947526</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1097330238123582</v>
+        <v>0.06814227390551998</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05070525897094374</v>
+        <v>0.04873642776938633</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3173666033.87475</v>
+        <v>3458533480.177912</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1386983599206408</v>
+        <v>0.1336775429743298</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02746698535182779</v>
+        <v>0.03232272709243014</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>94</v>
+      </c>
+      <c r="J74" t="n">
+        <v>344</v>
+      </c>
+      <c r="K74" t="n">
+        <v>43.81939590122472</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1758073266.666069</v>
+        <v>2212759576.751008</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1445775520939238</v>
+        <v>0.1518764675990859</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03424652172648439</v>
+        <v>0.02403477474141275</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5047727508.765008</v>
+        <v>5021813226.315445</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07879520923020145</v>
+        <v>0.09219905203836068</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03406204238031827</v>
+        <v>0.03176508516178677</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>163</v>
+      </c>
+      <c r="J76" t="n">
+        <v>344</v>
+      </c>
+      <c r="K76" t="n">
+        <v>62.75530761737848</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1882851385.608241</v>
+        <v>1958875856.934376</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1527267153171466</v>
+        <v>0.1848408904600435</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02185433682119218</v>
+        <v>0.02635157485782187</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3195,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3734747360.941862</v>
+        <v>3743441073.629296</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08803675313595979</v>
+        <v>0.09783721526631391</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04881481516125832</v>
+        <v>0.03816551073353085</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>171</v>
+      </c>
+      <c r="J78" t="n">
+        <v>345</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1638274325.035736</v>
+        <v>1667260494.235429</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1614051737832129</v>
+        <v>0.1516805695987808</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02638372321004022</v>
+        <v>0.04029641591718659</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3504055041.777936</v>
+        <v>5341088318.737579</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09385464588886686</v>
+        <v>0.0942586302110561</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03050908132220859</v>
+        <v>0.03428859742166249</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>169</v>
+      </c>
+      <c r="J80" t="n">
+        <v>344</v>
+      </c>
+      <c r="K80" t="n">
+        <v>52.32862433742461</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3217977597.54083</v>
+        <v>4413527360.841702</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1159521947848842</v>
+        <v>0.1350589460265993</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02052062062060906</v>
+        <v>0.02780224057832079</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>159</v>
+      </c>
+      <c r="J81" t="n">
+        <v>345</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4798912206.829686</v>
+        <v>4484103262.094719</v>
       </c>
       <c r="F82" t="n">
-        <v>0.180547295724854</v>
+        <v>0.211962038199386</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02517368726933806</v>
+        <v>0.02483421525000331</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>246</v>
+      </c>
+      <c r="J82" t="n">
+        <v>344</v>
+      </c>
+      <c r="K82" t="n">
+        <v>58.91315922461174</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2228449847.52797</v>
+        <v>1687412869.924092</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09978924984576253</v>
+        <v>0.1477993369630128</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03748377523238782</v>
+        <v>0.02787126677293139</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2031028191.059052</v>
+        <v>1905834276.957172</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07305840513172655</v>
+        <v>0.08188779420274553</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05096280377095184</v>
+        <v>0.04370039057463836</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2847533524.921428</v>
+        <v>2823745953.498677</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1260945203078202</v>
+        <v>0.14991112500591</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03542828636980139</v>
+        <v>0.04306483231480847</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2643120492.257581</v>
+        <v>2498673835.741999</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1337452303895946</v>
+        <v>0.1336857878467858</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02002571152094131</v>
+        <v>0.02490897662250733</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1464246013.632314</v>
+        <v>1145017239.048183</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1595832832749911</v>
+        <v>0.1417730406581451</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03107259638827379</v>
+        <v>0.02726733932101499</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2612528189.448379</v>
+        <v>2558280378.372917</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1351229023399479</v>
+        <v>0.1344130964115207</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03369395873633638</v>
+        <v>0.03167207139694828</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2344819174.215107</v>
+        <v>2988744592.033152</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1349677771685606</v>
+        <v>0.1264032351579026</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02688686648557017</v>
+        <v>0.03937348989113121</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2111021430.403105</v>
+        <v>2044292713.782536</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1251271544831631</v>
+        <v>0.09418164399247343</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04430874491322855</v>
+        <v>0.04429193378535564</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1462612609.114669</v>
+        <v>2097864223.923151</v>
       </c>
       <c r="F91" t="n">
-        <v>0.124152547453474</v>
+        <v>0.1858538322022373</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0388390220144163</v>
+        <v>0.04731784373592014</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2868844735.772756</v>
+        <v>2786184842.554088</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0879464498098301</v>
+        <v>0.09938549579239957</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03222531460272609</v>
+        <v>0.03835042782880129</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4597172207.507349</v>
+        <v>4912491138.846908</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09831279181242787</v>
+        <v>0.09706143592195654</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05073114947003419</v>
+        <v>0.05056477001466321</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>159</v>
+      </c>
+      <c r="J93" t="n">
+        <v>345</v>
+      </c>
+      <c r="K93" t="n">
+        <v>67.3284063324385</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1917649574.394492</v>
+        <v>2191254360.805385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1680852954307113</v>
+        <v>0.1503897823223009</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03917014666453212</v>
+        <v>0.03050159487496444</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2095092088.204346</v>
+        <v>2689761587.541687</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1123205652854565</v>
+        <v>0.1302412189360801</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03979697633906329</v>
+        <v>0.04698104505605333</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2109383831.003545</v>
+        <v>1535883802.218734</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1382628887597862</v>
+        <v>0.1205651482318742</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04592922480732066</v>
+        <v>0.03753891330859034</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4114615552.184812</v>
+        <v>4338483204.230851</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1202785259924343</v>
+        <v>0.1295910297106114</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01930652076689159</v>
+        <v>0.0250537546332201</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>177</v>
+      </c>
+      <c r="J97" t="n">
+        <v>345</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2966808468.309795</v>
+        <v>3555501976.624191</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1300595335312272</v>
+        <v>0.1115019998298816</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02803644998397397</v>
+        <v>0.02460407646698003</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>86</v>
+      </c>
+      <c r="J98" t="n">
+        <v>345</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2534315638.012036</v>
+        <v>2352602646.346554</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1393698096563803</v>
+        <v>0.1114310726534728</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02265140487680857</v>
+        <v>0.02470801440403029</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4772055951.278622</v>
+        <v>3891590025.070002</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1105703280879548</v>
+        <v>0.1713610566616686</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01901392812454296</v>
+        <v>0.02320599857096859</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>156</v>
+      </c>
+      <c r="J100" t="n">
+        <v>345</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3445955029.612154</v>
+        <v>2987742984.818319</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1416300600904471</v>
+        <v>0.1577333954471238</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05856727033510323</v>
+        <v>0.0457584540609978</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
